--- a/10-16-eBiz.xlsx
+++ b/10-16-eBiz.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$25</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -76,7 +76,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -103,7 +102,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -130,7 +128,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -157,7 +154,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -184,7 +180,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -211,7 +206,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -238,7 +232,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -265,7 +258,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -292,7 +284,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -319,7 +310,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -346,7 +336,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -373,7 +362,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -415,7 +403,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -444,16 +431,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,34 +493,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1058,7 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1114,30 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="498">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1971,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -2062,7 +1998,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="27">
         <v>42644</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2126,210 +2062,70 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="27" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="15">
-        <v>42644</v>
-      </c>
-      <c r="E3" s="27">
-        <f t="shared" ref="E3:E8" si="0">D3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="H3" s="27">
-        <f t="shared" ref="H3:H8" si="1">G3*C3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27">
-        <f t="shared" ref="K3:K8" si="2">H3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29">
-        <f t="shared" ref="M3:M8" si="3">L3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-    </row>
-    <row r="4" spans="1:20" ht="21" customHeight="1">
-      <c r="A4" s="15">
-        <v>42644</v>
-      </c>
+    <row r="3" spans="1:20">
+      <c r="B3" s="10"/>
+      <c r="I3" s="25"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="15"/>
       <c r="B4" s="10"/>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I4" s="25"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M4" s="7"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="24"/>
-    </row>
-    <row r="5" spans="1:20" s="33" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="15">
-        <v>42644</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="H5" s="33">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="33">
-        <v>0</v>
-      </c>
-      <c r="K5" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:20" s="33" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="15">
-        <v>42644</v>
-      </c>
-      <c r="E6" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
-    </row>
-    <row r="7" spans="1:20" ht="21" customHeight="1">
-      <c r="A7" s="15">
-        <v>42644</v>
-      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="I5" s="25"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="I6" s="25"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="15"/>
       <c r="B7" s="10"/>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I7" s="25"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1">
-      <c r="A8" s="15">
-        <v>42644</v>
-      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="15"/>
       <c r="B8" s="10"/>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I8" s="19"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="M8" s="7"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" s="10"/>
-      <c r="I9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="I9" s="19"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="P9" s="17"/>
@@ -2338,18 +2134,19 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="15"/>
-      <c r="B10" s="10"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="13"/>
+      <c r="I10" s="19"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="18"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
-      <c r="I11" s="25"/>
+      <c r="B11" s="13"/>
+      <c r="I11" s="19"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="P11" s="17"/>
@@ -2358,8 +2155,8 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="15"/>
-      <c r="B12" s="10"/>
-      <c r="I12" s="25"/>
+      <c r="B12" s="13"/>
+      <c r="I12" s="19"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="P12" s="17"/>
@@ -2368,17 +2165,19 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="15"/>
-      <c r="B13" s="10"/>
-      <c r="I13" s="25"/>
+      <c r="B13" s="13"/>
+      <c r="I13" s="19"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="18"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="15"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="F14" s="23"/>
       <c r="I14" s="19"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2389,7 +2188,6 @@
     <row r="15" spans="1:20">
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
-      <c r="F15" s="21"/>
       <c r="I15" s="19"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2406,7 +2204,6 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="15"/>
@@ -2431,6 +2228,7 @@
     <row r="19" spans="1:21">
       <c r="A19" s="15"/>
       <c r="B19" s="13"/>
+      <c r="F19" s="21"/>
       <c r="I19" s="19"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -2442,7 +2240,6 @@
     <row r="20" spans="1:21">
       <c r="A20" s="15"/>
       <c r="B20" s="13"/>
-      <c r="F20" s="23"/>
       <c r="I20" s="19"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -2483,6 +2280,7 @@
     <row r="24" spans="1:21">
       <c r="A24" s="15"/>
       <c r="B24" s="13"/>
+      <c r="F24" s="21"/>
       <c r="I24" s="19"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2493,178 +2291,115 @@
     <row r="25" spans="1:21">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="I25" s="19"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="P25" s="17"/>
+      <c r="P25" s="22"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="18"/>
-      <c r="S25" s="12"/>
+      <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="12"/>
       <c r="I26" s="19"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="18"/>
+      <c r="P26" s="11"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="15"/>
       <c r="B27" s="13"/>
       <c r="I27" s="19"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="18"/>
+      <c r="P27" s="11"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="15"/>
       <c r="B28" s="13"/>
-      <c r="I28" s="19"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
+      <c r="P28" s="11"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="15"/>
       <c r="B29" s="13"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="12"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="18"/>
+      <c r="P29" s="11"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="15"/>
       <c r="B30" s="13"/>
-      <c r="F30" s="21"/>
-      <c r="I30" s="19"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="18"/>
+      <c r="P30" s="11"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="15"/>
       <c r="B31" s="13"/>
-      <c r="F31" s="23"/>
-      <c r="I31" s="19"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="2"/>
+      <c r="P31" s="11"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="B32" s="20"/>
-      <c r="C32" s="12"/>
-      <c r="I32" s="19"/>
+      <c r="B32" s="13"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="P32" s="11"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="2:21">
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33" s="13"/>
-      <c r="I33" s="19"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="P33" s="11"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="2:21">
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="G34" s="14"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="P34" s="11"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="2:21">
+    </row>
+    <row r="35" spans="2:20">
       <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="P35" s="11"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:20">
       <c r="B36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="G36" s="14"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="P36" s="11"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="2:21">
-      <c r="B37" s="13"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="P37" s="11"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:21">
-      <c r="B38" s="13"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="P38" s="11"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="13"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="P39" s="11"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="P40" s="11"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:21">
-      <c r="B41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="P41" s="11"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:21">
-      <c r="B42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="P42" s="11"/>
-      <c r="T42" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:R31"/>
+  <autoFilter ref="A1:R25"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
